--- a/DTT-Assessment-Hour-Log.xlsx
+++ b/DTT-Assessment-Hour-Log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <r>
       <rPr>
@@ -65,6 +65,13 @@
     <t xml:space="preserve">16/05/2023</t>
   </si>
   <si>
+    <t xml:space="preserve">Organizing a Trello board and filling it out with the user stories.
+https://trello.com/b/pPSN3ZC4/dtt-maze-generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research maze generation algorithms</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -72,8 +79,45 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Organizing a Trello board and filling it out with the user stories.
-</t>
+      <t xml:space="preserve">Since I already applied once for an internship with DTT, and that time I had to make a very similar assignment (Including maze generation using </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="8"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Aldous-Broder, Binary Tree, and Prim’s Algorrithm, Random Depth First Search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, this time I want to focus on the visualization and gameplay more than the maze generation itself. Thus, I looked at the results of a view perfect maze algorithms and picked the most visually interesting that I haven’t programmed before, </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="8"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Recursive Division</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Steps on how that algorithm works are listed at </t>
     </r>
     <r>
       <rPr>
@@ -83,23 +127,47 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">https://trello.com/b/pPSN3ZC4/dtt-maze-generation</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Example 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Had some issues with…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Example 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implemented bonus feature….</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
+      <t xml:space="preserve">https://weblog.jamisbuck.org/2011/1/12/maze-generation-recursive-division-algorithm</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Setup and initial  maze generation code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I setup a github repository for the project, and started to get to work. I used the algorithm to fill a cell based grid with walls and passages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debugging the ‘perfectness’ of the algorithm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">My algorithm seemed to be generating mazes, but did not seem to generate </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="8"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">perfect </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">mazes, as some of the paths were not connected to one another. To fix this, I ended up converting the grid to a grid of vertices between which walls can exist, instead of handling the grid as a grid of cells.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Total amount of hours</t>
@@ -225,7 +293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -270,13 +338,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
       <right/>
       <top/>
       <bottom/>
@@ -335,7 +396,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -368,31 +429,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -400,11 +465,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -417,10 +486,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -509,9 +574,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2220120</xdr:colOff>
+      <xdr:colOff>2219760</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>822240</xdr:rowOff>
+      <xdr:rowOff>821880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -525,7 +590,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="148320" y="131760"/>
-          <a:ext cx="2071800" cy="690480"/>
+          <a:ext cx="2071440" cy="690120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -547,8 +612,8 @@
   </sheetPr>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -612,45 +677,51 @@
       <c r="E4" s="12"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="100.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10" t="n">
-        <v>42736</v>
-      </c>
-      <c r="D5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
+    <row r="6" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" s="10" t="n">
-        <v>42736</v>
-      </c>
-      <c r="D6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="E7" s="12"/>
       <c r="F7" s="7"/>
     </row>
@@ -658,7 +729,7 @@
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="12"/>
       <c r="F8" s="7"/>
     </row>
@@ -666,7 +737,7 @@
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="12"/>
       <c r="F9" s="7"/>
     </row>
@@ -674,7 +745,7 @@
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="12"/>
       <c r="F10" s="7"/>
     </row>
@@ -682,7 +753,7 @@
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="12"/>
       <c r="F11" s="7"/>
     </row>
@@ -690,7 +761,7 @@
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="12"/>
       <c r="F12" s="7"/>
     </row>
@@ -698,7 +769,7 @@
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="12"/>
       <c r="F13" s="7"/>
     </row>
@@ -706,7 +777,7 @@
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="12"/>
       <c r="F14" s="7"/>
     </row>
@@ -714,7 +785,7 @@
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="12"/>
       <c r="F15" s="7"/>
     </row>
@@ -722,7 +793,7 @@
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="12"/>
       <c r="F16" s="7"/>
     </row>
@@ -730,7 +801,7 @@
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="12"/>
       <c r="F17" s="7"/>
     </row>
@@ -738,7 +809,7 @@
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="12"/>
       <c r="F18" s="7"/>
     </row>
@@ -746,7 +817,7 @@
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="12"/>
       <c r="F19" s="7"/>
     </row>
@@ -754,7 +825,7 @@
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="12"/>
       <c r="F20" s="7"/>
     </row>
@@ -762,7 +833,7 @@
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="12"/>
       <c r="F21" s="7"/>
     </row>
@@ -770,7 +841,7 @@
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="12"/>
       <c r="F22" s="7"/>
     </row>
@@ -778,7 +849,7 @@
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="12"/>
       <c r="F23" s="7"/>
     </row>
@@ -786,7 +857,7 @@
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="12"/>
       <c r="F24" s="7"/>
     </row>
@@ -794,7 +865,7 @@
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="12"/>
       <c r="F25" s="7"/>
     </row>
@@ -802,7 +873,7 @@
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="12"/>
       <c r="F26" s="7"/>
     </row>
@@ -810,7 +881,7 @@
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="12"/>
       <c r="F27" s="7"/>
     </row>
@@ -818,54 +889,54 @@
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="12"/>
       <c r="F28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="17" t="n">
+      <c r="A30" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="18" t="n">
         <f aca="false">SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>4</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
+        <v>5</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="18"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
       <c r="F31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="18"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="21"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -873,7 +944,8 @@
     <mergeCell ref="A2:F2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="https://trello.com/b/pPSN3ZC4/dtt-maze-generation"/>
+    <hyperlink ref="D4" r:id="rId1" display="Organizing a Trello board and filling it out with the user stories.&#10;https://trello.com/b/pPSN3ZC4/dtt-maze-generation"/>
+    <hyperlink ref="D5" r:id="rId2" display="https://weblog.jamisbuck.org/2011/1/12/maze-generation-recursive-division-algorithm"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.5"/>
@@ -882,6 +954,6 @@
     <oddHeader/>
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/DTT-Assessment-Hour-Log.xlsx
+++ b/DTT-Assessment-Hour-Log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <r>
       <rPr>
@@ -72,63 +72,7 @@
     <t xml:space="preserve">Research maze generation algorithms</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Since I already applied once for an internship with DTT, and that time I had to make a very similar assignment (Including maze generation using </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="8"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Aldous-Broder, Binary Tree, and Prim’s Algorrithm, Random Depth First Search</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, this time I want to focus on the visualization and gameplay more than the maze generation itself. Thus, I looked at the results of a view perfect maze algorithms and picked the most visually interesting that I haven’t programmed before, </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="8"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Recursive Division</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. Steps on how that algorithm works are listed at </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://weblog.jamisbuck.org/2011/1/12/maze-generation-recursive-division-algorithm</t>
-    </r>
+    <t xml:space="preserve">Since I already applied once for an internship with DTT, and that time I had to make a very similar assignment (Including maze generation using Aldous-Broder, Binary Tree, and Prim’s Algorrithm, Random Depth First Search, this time I want to focus on the visualization and gameplay more than the maze generation itself. Thus, I looked at the results of a view perfect maze algorithms and picked the most visually interesting that I haven’t programmed before, Recursive Division. Steps on how that algorithm works are listed at https://weblog.jamisbuck.org/2011/1/12/maze-generation-recursive-division-algorithm</t>
   </si>
   <si>
     <t xml:space="preserve">Project Setup and initial  maze generation code</t>
@@ -170,6 +114,24 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Creating a visual representation with quad mesh generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/05/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I felt like it would be more fun to have an actual 3d maze than just a 2d representation so I could later add a player controller to try and solve the maze in first person. To test how such a maze would look in 3d, I wrote some code that generates quad meshes for all the walls.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating a visual representation with prefab scaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/05/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The quads showed a nice representation of the maze, but there was something missing: thickness to the walls. So instead, I opted to make two prefabs for the outer and inner walls that are then appropriately scaled and placed into position.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Total amount of hours</t>
   </si>
 </sst>
@@ -183,7 +145,7 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -264,6 +226,17 @@
       <name val="Open Sans"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="8"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -396,7 +369,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -449,15 +422,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -574,9 +555,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2219760</xdr:colOff>
+      <xdr:colOff>2219400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>821880</xdr:rowOff>
+      <xdr:rowOff>821520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -590,7 +571,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="148320" y="131760"/>
-          <a:ext cx="2071440" cy="690120"/>
+          <a:ext cx="2071080" cy="689760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -613,7 +594,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -687,14 +668,14 @@
       <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="9" t="n">
@@ -703,7 +684,7 @@
       <c r="C6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="12"/>
@@ -719,25 +700,41 @@
       <c r="C7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="13"/>
+    <row r="8" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="E8" s="12"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="13"/>
+    <row r="9" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="E9" s="12"/>
       <c r="F9" s="7"/>
     </row>
@@ -745,7 +742,7 @@
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="13"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="12"/>
       <c r="F10" s="7"/>
     </row>
@@ -753,7 +750,7 @@
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="13"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="12"/>
       <c r="F11" s="7"/>
     </row>
@@ -761,7 +758,7 @@
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="13"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="12"/>
       <c r="F12" s="7"/>
     </row>
@@ -769,7 +766,7 @@
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="13"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="12"/>
       <c r="F13" s="7"/>
     </row>
@@ -777,7 +774,7 @@
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="12"/>
       <c r="F14" s="7"/>
     </row>
@@ -785,7 +782,7 @@
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="13"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="12"/>
       <c r="F15" s="7"/>
     </row>
@@ -793,7 +790,7 @@
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="13"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="12"/>
       <c r="F16" s="7"/>
     </row>
@@ -801,7 +798,7 @@
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="13"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="12"/>
       <c r="F17" s="7"/>
     </row>
@@ -809,7 +806,7 @@
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="13"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="12"/>
       <c r="F18" s="7"/>
     </row>
@@ -817,7 +814,7 @@
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="13"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="12"/>
       <c r="F19" s="7"/>
     </row>
@@ -825,7 +822,7 @@
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="13"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="12"/>
       <c r="F20" s="7"/>
     </row>
@@ -833,7 +830,7 @@
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="13"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="12"/>
       <c r="F21" s="7"/>
     </row>
@@ -841,7 +838,7 @@
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="13"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="12"/>
       <c r="F22" s="7"/>
     </row>
@@ -849,7 +846,7 @@
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="13"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="12"/>
       <c r="F23" s="7"/>
     </row>
@@ -857,7 +854,7 @@
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="13"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="12"/>
       <c r="F24" s="7"/>
     </row>
@@ -865,7 +862,7 @@
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="13"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="12"/>
       <c r="F25" s="7"/>
     </row>
@@ -873,7 +870,7 @@
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="13"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="12"/>
       <c r="F26" s="7"/>
     </row>
@@ -881,7 +878,7 @@
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="13"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="12"/>
       <c r="F27" s="7"/>
     </row>
@@ -889,54 +886,54 @@
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="13"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="12"/>
       <c r="F28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="16"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="18" t="n">
+      <c r="A30" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="20" t="n">
         <f aca="false">SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>5</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
+        <v>7</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
       <c r="F30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="19"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
       <c r="F31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="19"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
       <c r="F32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="22"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -945,7 +942,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" display="Organizing a Trello board and filling it out with the user stories.&#10;https://trello.com/b/pPSN3ZC4/dtt-maze-generation"/>
-    <hyperlink ref="D5" r:id="rId2" display="https://weblog.jamisbuck.org/2011/1/12/maze-generation-recursive-division-algorithm"/>
+    <hyperlink ref="D5" r:id="rId2" display="Since I already applied once for an internship with DTT, and that time I had to make a very similar assignment (Including maze generation using Aldous-Broder, Binary Tree, and Prim’s Algorrithm, Random Depth First Search, this time I want to focus on the visualization and gameplay more than the maze generation itself. Thus, I looked at the results of a view perfect maze algorithms and picked the most visually interesting that I haven’t programmed before, Recursive Division. Steps on how that algorithm works are listed at https://weblog.jamisbuck.org/2011/1/12/maze-generation-recursive-division-algorithm"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.5"/>

--- a/DTT-Assessment-Hour-Log.xlsx
+++ b/DTT-Assessment-Hour-Log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <r>
       <rPr>
@@ -132,6 +132,12 @@
     <t xml:space="preserve">The quads showed a nice representation of the maze, but there was something missing: thickness to the walls. So instead, I opted to make two prefabs for the outer and inner walls that are then appropriately scaled and placed into position.</t>
   </si>
   <si>
+    <t xml:space="preserve">Creating responsive UI to change the generation parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I created some UI elements that are all scaled to the respective screen size, that allow you to input an X and Y value for the grid size, and then also added a button that starts the maze generation. I also did some input validation and wrote a script that enables/disables the generate button based on whether the generation parameters are satisfied</t>
+  </si>
+  <si>
     <t xml:space="preserve">Total amount of hours</t>
   </si>
 </sst>
@@ -145,7 +151,7 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -226,17 +232,6 @@
       <name val="Open Sans"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Open Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="8"/>
-      <name val="Open Sans"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -369,7 +364,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -430,15 +425,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -555,9 +542,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2219400</xdr:colOff>
+      <xdr:colOff>2219040</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>821520</xdr:rowOff>
+      <xdr:rowOff>821160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -571,7 +558,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="148320" y="131760"/>
-          <a:ext cx="2071080" cy="689760"/>
+          <a:ext cx="2070720" cy="689400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -594,7 +581,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -716,14 +703,14 @@
       <c r="C8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="9" t="n">
@@ -738,11 +725,19 @@
       <c r="E9" s="12"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="14"/>
+    <row r="10" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="E10" s="12"/>
       <c r="F10" s="7"/>
     </row>
@@ -891,49 +886,49 @@
       <c r="F28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="20" t="n">
+      <c r="A30" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="18" t="n">
         <f aca="false">SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>7</v>
-      </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
+        <v>8</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
       <c r="F31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="21"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="22"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="24"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/DTT-Assessment-Hour-Log.xlsx
+++ b/DTT-Assessment-Hour-Log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <r>
       <rPr>
@@ -136,6 +136,27 @@
   </si>
   <si>
     <t xml:space="preserve">I created some UI elements that are all scaled to the respective screen size, that allow you to input an X and Y value for the grid size, and then also added a button that starts the maze generation. I also did some input validation and wrote a script that enables/disables the generate button based on whether the generation parameters are satisfied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maze configuration limits and camera scaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Made sure mazes of only certain sizes can be input into the UI. Also added a component that scales the camera size appropriately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design, color schemes and adding optional features to trello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked out the idea for the optional features that I want to implement. Then I started designing some color schemes for the game to adhere to, and added the optional features I want to implement to the trello board. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimizing UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding a minimize button to the UI including an open/close animation, and making it look pretty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
   </si>
   <si>
     <t xml:space="preserve">Total amount of hours</t>
@@ -542,9 +563,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2219040</xdr:colOff>
+      <xdr:colOff>2218680</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>821160</xdr:rowOff>
+      <xdr:rowOff>820800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -558,7 +579,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="148320" y="131760"/>
-          <a:ext cx="2070720" cy="689400"/>
+          <a:ext cx="2070360" cy="689040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -578,10 +599,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -629,7 +650,7 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -645,7 +666,7 @@
       <c r="E4" s="12"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="100.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -666,7 +687,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>7</v>
@@ -741,28 +762,54 @@
       <c r="E10" s="12"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="14"/>
+    <row r="11" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="E11" s="12"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="14"/>
+    <row r="12" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="E12" s="12"/>
       <c r="F12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="12"/>
+      <c r="A13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="F13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -885,30 +932,30 @@
       <c r="E28" s="12"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="16"/>
+    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="12"/>
       <c r="F29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="18" t="n">
-        <f aca="false">SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>8</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
       <c r="E30" s="16"/>
       <c r="F30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="19"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="18" t="n">
+        <f aca="false">SUMIF(E4:E29,"&lt;&gt;x",B4:B29)</f>
+        <v>11</v>
+      </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
@@ -923,13 +970,22 @@
       <c r="F32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="22"/>
-    </row>
+      <c r="A33" s="19"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="22"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>

--- a/DTT-Assessment-Hour-Log.xlsx
+++ b/DTT-Assessment-Hour-Log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <r>
       <rPr>
@@ -65,14 +65,68 @@
     <t xml:space="preserve">16/05/2023</t>
   </si>
   <si>
-    <t xml:space="preserve">Organizing a Trello board and filling it out with the user stories.
-https://trello.com/b/pPSN3ZC4/dtt-maze-generation</t>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Organizing a Trello board and filling it out with the user stories. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://trello.com/b/pPSN3ZC4/dtt-maze-generation</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Research maze generation algorithms</t>
   </si>
   <si>
-    <t xml:space="preserve">Since I already applied once for an internship with DTT, and that time I had to make a very similar assignment (Including maze generation using Aldous-Broder, Binary Tree, and Prim’s Algorrithm, Random Depth First Search, this time I want to focus on the visualization and gameplay more than the maze generation itself. Thus, I looked at the results of a view perfect maze algorithms and picked the most visually interesting that I haven’t programmed before, Recursive Division. Steps on how that algorithm works are listed at https://weblog.jamisbuck.org/2011/1/12/maze-generation-recursive-division-algorithm</t>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Since I already applied once for an internship with DTT, and that time I had to make a very similar assignment (Including maze generation using Aldous-Broder, Binary Tree, and Prim’s Algorrithm, Random Depth First Search, my project from that time can be found at </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/kemmel-dev/MazeGen/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ), this time I want to focus on the visualization and gameplay more than the maze generation itself. Thus, I looked at the results of a view perfect maze algorithms and picked the most visually interesting that I haven’t programmed before, Recursive Division. Steps on how that algorithm works are listed at </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://weblog.jamisbuck.org/2011/1/12/maze-generation-recursive-division-algorithm</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Project Setup and initial  maze generation code</t>
@@ -157,6 +211,54 @@
   </si>
   <si>
     <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refine camera scaling, and add pan and zoom camera controls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/05/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The camera scaling seemed to run into some issues here and there, so I updated it to take the horizontal aspect ratio in mind. I also added some camera controls that allow you to pan and zoom around the maze.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step by step maze building.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added coroutines to visualize the steps that the algorithm takes, and made sure that these were stopped when restarted. They also take into account a config value of StepTime which indicate how long a build step takes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improving 2D performance by adding a 2d renderer</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Since the meshes for 250x250 mazes contain quite a lot of vertices, the performance in the maze overview was pretty bad. We don’t need to generate the 3d meshes before we actually jump into the 3d view, So I extracted an interface for the mazebuilder and added one that drew the maze using linerenderer components instead. Still not the best performance solution (Best would be to convert the results into static images), but the performance will be okay for a mostly static scene. The algorithm still causes a little bit of a lagspike when initially generating the maze, but the performance of the algorithm can only be improved marginally. I chose not to work on a more performance-friendly algorithm as I already showed how I would do that in my previous internship application ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/kemmel-dev/MazeGen/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  )</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Total amount of hours</t>
@@ -385,7 +487,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -430,7 +532,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -439,10 +541,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -563,9 +661,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2218680</xdr:colOff>
+      <xdr:colOff>2218320</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>820800</xdr:rowOff>
+      <xdr:rowOff>820440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -579,7 +677,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="148320" y="131760"/>
-          <a:ext cx="2070360" cy="689040"/>
+          <a:ext cx="2070000" cy="688680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -602,7 +700,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -666,7 +764,7 @@
       <c r="E4" s="12"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="88.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -682,7 +780,7 @@
       <c r="E5" s="12"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
         <v>11</v>
       </c>
@@ -692,7 +790,7 @@
       <c r="C6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="12"/>
@@ -708,7 +806,7 @@
       <c r="C7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="12"/>
@@ -724,7 +822,7 @@
       <c r="C8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="12"/>
@@ -740,7 +838,7 @@
       <c r="C9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="12"/>
@@ -756,7 +854,7 @@
       <c r="C10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="12"/>
@@ -772,7 +870,7 @@
       <c r="C11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="12"/>
@@ -788,7 +886,7 @@
       <c r="C12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="12"/>
@@ -804,7 +902,7 @@
       <c r="C13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="12" t="s">
@@ -812,27 +910,55 @@
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="12"/>
+    <row r="14" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="12"/>
+    <row r="15" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="14"/>
+    <row r="16" customFormat="false" ht="111.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="E16" s="12"/>
       <c r="F16" s="7"/>
     </row>
@@ -840,7 +966,7 @@
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="14"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="12"/>
       <c r="F17" s="7"/>
     </row>
@@ -848,7 +974,7 @@
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="14"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="12"/>
       <c r="F18" s="7"/>
     </row>
@@ -856,7 +982,7 @@
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="14"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="12"/>
       <c r="F19" s="7"/>
     </row>
@@ -864,7 +990,7 @@
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="14"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="12"/>
       <c r="F20" s="7"/>
     </row>
@@ -872,7 +998,7 @@
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="14"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="12"/>
       <c r="F21" s="7"/>
     </row>
@@ -880,7 +1006,7 @@
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="14"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="12"/>
       <c r="F22" s="7"/>
     </row>
@@ -888,7 +1014,7 @@
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="14"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="12"/>
       <c r="F23" s="7"/>
     </row>
@@ -896,7 +1022,7 @@
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="14"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="12"/>
       <c r="F24" s="7"/>
     </row>
@@ -904,7 +1030,7 @@
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="14"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="12"/>
       <c r="F25" s="7"/>
     </row>
@@ -912,7 +1038,7 @@
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="14"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="12"/>
       <c r="F26" s="7"/>
     </row>
@@ -920,7 +1046,7 @@
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="14"/>
+      <c r="D27" s="11"/>
       <c r="E27" s="12"/>
       <c r="F27" s="7"/>
     </row>
@@ -928,63 +1054,56 @@
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="14"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="12"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="12"/>
+      <c r="E29" s="15"/>
       <c r="F29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
+      <c r="A30" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="17" t="n">
+        <f aca="false">SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
+        <v>12</v>
+      </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
-      <c r="E30" s="16"/>
+      <c r="E30" s="15"/>
       <c r="F30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="18" t="n">
-        <f aca="false">SUMIF(E4:E29,"&lt;&gt;x",B4:B29)</f>
-        <v>11</v>
-      </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
       <c r="F31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="19"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
       <c r="F32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="19"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="20"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="22"/>
-    </row>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
@@ -992,8 +1111,8 @@
     <mergeCell ref="A2:F2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="Organizing a Trello board and filling it out with the user stories.&#10;https://trello.com/b/pPSN3ZC4/dtt-maze-generation"/>
-    <hyperlink ref="D5" r:id="rId2" display="Since I already applied once for an internship with DTT, and that time I had to make a very similar assignment (Including maze generation using Aldous-Broder, Binary Tree, and Prim’s Algorrithm, Random Depth First Search, this time I want to focus on the visualization and gameplay more than the maze generation itself. Thus, I looked at the results of a view perfect maze algorithms and picked the most visually interesting that I haven’t programmed before, Recursive Division. Steps on how that algorithm works are listed at https://weblog.jamisbuck.org/2011/1/12/maze-generation-recursive-division-algorithm"/>
+    <hyperlink ref="D4" r:id="rId1" display="https://trello.com/b/pPSN3ZC4/dtt-maze-generation"/>
+    <hyperlink ref="D16" r:id="rId2" display="https://github.com/kemmel-dev/MazeGen/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.5"/>

--- a/DTT-Assessment-Hour-Log.xlsx
+++ b/DTT-Assessment-Hour-Log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <r>
       <rPr>
@@ -65,25 +65,7 @@
     <t xml:space="preserve">16/05/2023</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Organizing a Trello board and filling it out with the user stories. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://trello.com/b/pPSN3ZC4/dtt-maze-generation</t>
-    </r>
+    <t xml:space="preserve">Organizing a Trello board and filling it out with the user stories. https://trello.com/b/pPSN3ZC4/dtt-maze-generation</t>
   </si>
   <si>
     <t xml:space="preserve">Research maze generation algorithms</t>
@@ -231,34 +213,16 @@
     <t xml:space="preserve">Improving 2D performance by adding a 2d renderer</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Since the meshes for 250x250 mazes contain quite a lot of vertices, the performance in the maze overview was pretty bad. We don’t need to generate the 3d meshes before we actually jump into the 3d view, So I extracted an interface for the mazebuilder and added one that drew the maze using linerenderer components instead. Still not the best performance solution (Best would be to convert the results into static images), but the performance will be okay for a mostly static scene. The algorithm still causes a little bit of a lagspike when initially generating the maze, but the performance of the algorithm can only be improved marginally. I chose not to work on a more performance-friendly algorithm as I already showed how I would do that in my previous internship application ( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://github.com/kemmel-dev/MazeGen/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">  )</t>
-    </r>
+    <t xml:space="preserve">Since the meshes for 250x250 mazes contain quite a lot of vertices, the performance in the maze overview was pretty bad. We don’t need to generate the 3d meshes before we actually jump into the 3d view, So I extracted an interface for the mazebuilder and added one that drew the maze using linerenderer components instead. Still not the best performance solution (Best would be to convert the results into static images), but the performance will be okay for a mostly static scene. The algorithm still causes a little bit of a lagspike when initially generating the maze, but the performance of the algorithm can only be improved marginally. I chose not to work on a more performance-friendly algorithm as I already showed how I would do that in my previous internship application ( https://github.com/kemmel-dev/MazeGen/  )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MazeContentsEditor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/05/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I added a second UI element that allows you to place a start, finish and key object in the 2d view of the maze. The plan is to use these objects in the 3d scene to alter the difficulty of the maze to the user’s liking.</t>
   </si>
   <si>
     <t xml:space="preserve">Total amount of hours</t>
@@ -487,7 +451,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -532,12 +496,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -661,9 +629,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2218320</xdr:colOff>
+      <xdr:colOff>2217960</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>820440</xdr:rowOff>
+      <xdr:rowOff>820080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -677,7 +645,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="148320" y="131760"/>
-          <a:ext cx="2070000" cy="688680"/>
+          <a:ext cx="2069640" cy="688320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -700,7 +668,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -774,14 +742,14 @@
       <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="9" t="n">
@@ -790,7 +758,7 @@
       <c r="C6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="12"/>
@@ -806,7 +774,7 @@
       <c r="C7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="12"/>
@@ -822,7 +790,7 @@
       <c r="C8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="12"/>
@@ -838,7 +806,7 @@
       <c r="C9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="12"/>
@@ -854,7 +822,7 @@
       <c r="C10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="12"/>
@@ -870,7 +838,7 @@
       <c r="C11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="12"/>
@@ -886,7 +854,7 @@
       <c r="C12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="12"/>
@@ -902,7 +870,7 @@
       <c r="C13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="12" t="s">
@@ -920,7 +888,7 @@
       <c r="C14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="12" t="s">
@@ -938,7 +906,7 @@
       <c r="C15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="12" t="s">
@@ -956,25 +924,35 @@
       <c r="C16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="13" t="s">
         <v>36</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
+    <row r="17" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="F17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="12"/>
       <c r="F18" s="7"/>
     </row>
@@ -982,7 +960,7 @@
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="12"/>
       <c r="F19" s="7"/>
     </row>
@@ -990,7 +968,7 @@
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="12"/>
       <c r="F20" s="7"/>
     </row>
@@ -998,7 +976,7 @@
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="12"/>
       <c r="F21" s="7"/>
     </row>
@@ -1006,7 +984,7 @@
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="12"/>
       <c r="F22" s="7"/>
     </row>
@@ -1014,7 +992,7 @@
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="12"/>
       <c r="F23" s="7"/>
     </row>
@@ -1022,7 +1000,7 @@
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="12"/>
       <c r="F24" s="7"/>
     </row>
@@ -1030,7 +1008,7 @@
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="12"/>
       <c r="F25" s="7"/>
     </row>
@@ -1038,7 +1016,7 @@
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="12"/>
       <c r="F26" s="7"/>
     </row>
@@ -1046,7 +1024,7 @@
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="12"/>
       <c r="F27" s="7"/>
     </row>
@@ -1054,54 +1032,54 @@
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="12"/>
       <c r="F28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="17" t="n">
-        <f aca="false">SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>12</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
+      <c r="A30" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="18" t="n">
+        <f aca="false">SUM(B4:B28)</f>
+        <v>16</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="18"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
       <c r="F31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="18"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="21"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1111,8 +1089,7 @@
     <mergeCell ref="A2:F2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="https://trello.com/b/pPSN3ZC4/dtt-maze-generation"/>
-    <hyperlink ref="D16" r:id="rId2" display="https://github.com/kemmel-dev/MazeGen/"/>
+    <hyperlink ref="D4" r:id="rId1" display="Organizing a Trello board and filling it out with the user stories. https://trello.com/b/pPSN3ZC4/dtt-maze-generation"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.5"/>
@@ -1121,6 +1098,6 @@
     <oddHeader/>
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DTT-Assessment-Hour-Log.xlsx
+++ b/DTT-Assessment-Hour-Log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <r>
       <rPr>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t xml:space="preserve">I added a second UI element that allows you to place a start, finish and key object in the 2d view of the maze. The plan is to use these objects in the 3d scene to alter the difficulty of the maze to the user’s liking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Player and transition into the 3d scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I added a player prefab and made the ‘Go!’ button transition from the 2d view into the 3d view of the maze. It generates a 3d version of the maze, and then places the player in it. The camera is then adjusted as to be parented under the player, and uses perspective mode instead of ortographic mode. </t>
   </si>
   <si>
     <t xml:space="preserve">Total amount of hours</t>
@@ -629,9 +635,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2217960</xdr:colOff>
+      <xdr:colOff>2217600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>820080</xdr:rowOff>
+      <xdr:rowOff>819720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -645,7 +651,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="148320" y="131760"/>
-          <a:ext cx="2069640" cy="688320"/>
+          <a:ext cx="2069280" cy="687960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -668,7 +674,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -948,12 +954,22 @@
       </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="12"/>
+    <row r="18" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="F18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1046,11 +1062,11 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B30" s="18" t="n">
         <f aca="false">SUM(B4:B28)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>

--- a/DTT-Assessment-Hour-Log.xlsx
+++ b/DTT-Assessment-Hour-Log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <r>
       <rPr>
@@ -229,6 +229,15 @@
   </si>
   <si>
     <t xml:space="preserve">I added a player prefab and made the ‘Go!’ button transition from the 2d view into the 3d view of the maze. It generates a 3d version of the maze, and then places the player in it. The camera is then adjusted as to be parented under the player, and uses perspective mode instead of ortographic mode. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gameplay loop, the last bufixes, toggles etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21/05/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I playtested and fixed any bugs I could find. I fixed things such as input validation, and made a lot of final tweaks, like being able to restart the game, toggling UI elements in the 3d mode etc. These changes are too small to individually sum in a list, but these small things really make for a better user experience.</t>
   </si>
   <si>
     <t xml:space="preserve">Total amount of hours</t>
@@ -635,9 +644,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2217600</xdr:colOff>
+      <xdr:colOff>2217240</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>819720</xdr:rowOff>
+      <xdr:rowOff>819360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -651,7 +660,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="148320" y="131760"/>
-          <a:ext cx="2069280" cy="687960"/>
+          <a:ext cx="2068920" cy="687600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -674,7 +683,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -972,12 +981,22 @@
       </c>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="12"/>
+    <row r="19" customFormat="false" ht="43.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="F19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1062,11 +1081,11 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="17" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B30" s="18" t="n">
         <f aca="false">SUM(B4:B28)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>

--- a/DTT-Assessment-Hour-Log.xlsx
+++ b/DTT-Assessment-Hour-Log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <r>
       <rPr>
@@ -74,11 +74,21 @@
     <r>
       <rPr>
         <sz val="8"/>
+        <color rgb="FFC9211E"/>
         <rFont val="Open Sans"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Since I already applied once for an internship with DTT, and that time I had to make a very similar assignment (Including maze generation using Aldous-Broder, Binary Tree, and Prim’s Algorrithm, Random Depth First Search, my project from that time can be found at </t>
+      <t xml:space="preserve">Since I already applied once for an internship with DTT, and that time I had to make a very similar assignment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (Including maze generation using Aldous-Broder, Binary Tree, and Prim’s Algorrithm, Random Depth First Search, my project from that time can be found at </t>
     </r>
     <r>
       <rPr>
@@ -97,7 +107,26 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> ), this time I want to focus on the visualization and gameplay more than the maze generation itself. Thus, I looked at the results of a view perfect maze algorithms and picked the most visually interesting that I haven’t programmed before, Recursive Division. Steps on how that algorithm works are listed at </t>
+      <t xml:space="preserve"> ), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">this time I want to focus on supporting both 2d and 3d generation, and to have a player solve the 3d generated maze.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> I looked at the results of a few perfect maze algorithms and picked the most visually interesting that I haven’t programmed before, Recursive Division. Steps on how that algorithm works are listed at </t>
     </r>
     <r>
       <rPr>
@@ -240,6 +269,21 @@
     <t xml:space="preserve">I playtested and fixed any bugs I could find. I fixed things such as input validation, and made a lot of final tweaks, like being able to restart the game, toggling UI elements in the 3d mode etc. These changes are too small to individually sum in a list, but these small things really make for a better user experience.</t>
   </si>
   <si>
+    <t xml:space="preserve">Refactor, build and document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/05/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I refactored a bunch of code that wasn’t neat, removed the need for serializing a lot of dependencies by resolving these through code, then added comments wherever required. I made a build, did a final playtest, and updated the hour log and trello board.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What I would improve given more time…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There’s many things to improve, but I delivered a functional prototype. I would improve the visuals by altering the used materials, add different maze generation algorithms (again, I did make it possible to easily add new generation aglorithms, but haven’t decided to add additional generation algorithms as I have already shown how I would add those in the old assessment ( github.com/kemmel-dev/MazeGen )), and add some more interesting scenery and gameplay elements. It would also be fun to have a second player do a maze-race! Mostly the aesthethics should get an overhaul, including sound design.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Total amount of hours</t>
   </si>
 </sst>
@@ -253,7 +297,7 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -323,6 +367,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFC9211E"/>
       <name val="Open Sans"/>
       <family val="2"/>
       <charset val="1"/>
@@ -466,7 +517,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -519,15 +570,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -624,7 +679,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -644,9 +699,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2217240</xdr:colOff>
+      <xdr:colOff>2216520</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>819360</xdr:rowOff>
+      <xdr:rowOff>818640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -660,7 +715,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="148320" y="131760"/>
-          <a:ext cx="2068920" cy="687600"/>
+          <a:ext cx="2068200" cy="686880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -682,8 +737,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -731,7 +786,7 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -773,7 +828,7 @@
       <c r="C6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="12"/>
@@ -789,7 +844,7 @@
       <c r="C7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="12"/>
@@ -805,7 +860,7 @@
       <c r="C8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="12"/>
@@ -821,7 +876,7 @@
       <c r="C9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="12"/>
@@ -837,7 +892,7 @@
       <c r="C10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="12"/>
@@ -853,7 +908,7 @@
       <c r="C11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="12"/>
@@ -869,7 +924,7 @@
       <c r="C12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="15" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="12"/>
@@ -885,7 +940,7 @@
       <c r="C13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="12" t="s">
@@ -903,7 +958,7 @@
       <c r="C14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="15" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="12" t="s">
@@ -921,7 +976,7 @@
       <c r="C15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="15" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="12" t="s">
@@ -939,7 +994,7 @@
       <c r="C16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="15" t="s">
         <v>36</v>
       </c>
       <c r="E16" s="12"/>
@@ -955,7 +1010,7 @@
       <c r="C17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="15" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="12" t="s">
@@ -973,7 +1028,7 @@
       <c r="C18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="12" t="s">
@@ -991,7 +1046,7 @@
       <c r="C19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E19" s="12" t="s">
@@ -999,11 +1054,19 @@
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="13"/>
+    <row r="20" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="E20" s="12"/>
       <c r="F20" s="7"/>
     </row>
@@ -1011,7 +1074,7 @@
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="13"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="12"/>
       <c r="F21" s="7"/>
     </row>
@@ -1019,15 +1082,19 @@
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="13"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="12"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8"/>
+    <row r="23" customFormat="false" ht="73.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="13"/>
+      <c r="D23" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="E23" s="12"/>
       <c r="F23" s="7"/>
     </row>
@@ -1035,7 +1102,7 @@
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="13"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="12"/>
       <c r="F24" s="7"/>
     </row>
@@ -1043,7 +1110,7 @@
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="13"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="12"/>
       <c r="F25" s="7"/>
     </row>
@@ -1051,7 +1118,7 @@
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="13"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="12"/>
       <c r="F26" s="7"/>
     </row>
@@ -1059,7 +1126,7 @@
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="13"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="12"/>
       <c r="F27" s="7"/>
     </row>
@@ -1067,54 +1134,54 @@
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="13"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="12"/>
       <c r="F28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="16"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="18" t="n">
+      <c r="A30" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="19" t="n">
         <f aca="false">SUM(B4:B28)</f>
-        <v>19</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
+        <v>20</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
       <c r="F30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="19"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
       <c r="F31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="19"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
       <c r="F32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="22"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="23"/>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
